--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3729.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3729.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.253597478065761</v>
+        <v>2.501534223556519</v>
       </c>
       <c r="B1">
-        <v>2.368656466239271</v>
+        <v>2.264607429504395</v>
       </c>
       <c r="C1">
-        <v>5.62934283844149</v>
+        <v>1.99350106716156</v>
       </c>
       <c r="D1">
-        <v>2.914020830229696</v>
+        <v>1.74684751033783</v>
       </c>
       <c r="E1">
-        <v>1.133839240436238</v>
+        <v>1.282963156700134</v>
       </c>
     </row>
   </sheetData>
